--- a/初下課文.xlsx
+++ b/初下課文.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1666">
   <si>
     <t>那臺電腦偶爾會死機</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22974,10 +22974,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国の北京から参りました。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>何のお構いもしませんで</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23223,21 +23219,496 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>おはようございます。山田です。今日からお世話になります。大学を卒業したばかりで，右も左も分かりませんが，一生懸命頑張りますので。ご指導よろしくお願いいたします。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期待していますよ。こちらこそよろしく</t>
   </si>
   <si>
     <t>よろしくお願いします。一緒に頑張りましょう。</t>
   </si>
   <si>
-    <t>はい，JC企画上海事務所でございます。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私，日中商事の佐藤と申します。お送りいただいた案内状，拝見しました。</t>
+    <r>
+      <t>ありがとうございます。早速，資料を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>届けさせていただきます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>承知</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>いたしました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。私，李秀麗</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と申します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，では，明日の午後，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>お伺いします</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>私，日中商事の佐藤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と申します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>お送りいただいた</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>案内状，拝見しました。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>いつもお世話になっております。また，この度は，突然お手紙を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>差し上げ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，失礼</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>いたしました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>はい，JC企画上海事務所で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ございます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>いえ。実は，私どもでは，これから新商品の開発を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>進めていく予定なんです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。そこで，ぜひ，詳しい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>お話を伺いたいのですが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>そうですか。では，一度社の方に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>おいでいただけますか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。明日なら午後はずっと社に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>おります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>おはようございます。山田です。今日から</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>お世話になります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。大学を卒業したばかりで，右も左も分かりませんが，一生懸命頑張りますので。ご指導よろしくお願いいたします。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中国の北京から</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参りました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>うん。飛行機の中で食べ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>てきたよ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>そうだな。事務所へ直行しようか。早く</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見てみたい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>からな。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>お食事をもう</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>お済みになりましたか</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>では，まずホテルにチェックイン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なさいますか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。それとも，先に事務所を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ご覧になりますか</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23989,8 +24460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A819" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B828" sqref="B828"/>
+    <sheetView tabSelected="1" topLeftCell="A775" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B790" sqref="B790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -29221,7 +29692,7 @@
         <v>1106</v>
       </c>
       <c r="B768" s="12" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="769" spans="1:1">
@@ -29279,62 +29750,74 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="785" spans="1:1">
+    <row r="785" spans="1:2">
       <c r="A785" s="11" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="786" spans="1:1">
+      <c r="B785" s="12" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
       <c r="A786" s="11" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="787" spans="1:1" ht="34.5">
+      <c r="B786" s="12" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" ht="34.5">
       <c r="A787" s="11" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="788" spans="1:1" ht="34.5">
+      <c r="B787" s="12" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" ht="34.5">
       <c r="A788" s="11" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="790" spans="1:1">
+      <c r="B788" s="12" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
       <c r="A790" s="11" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="792" spans="1:1">
+    <row r="792" spans="1:2">
       <c r="A792" s="11" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="793" spans="1:1" ht="34.5">
+    <row r="793" spans="1:2" ht="34.5">
       <c r="A793" s="11" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="794" spans="1:1">
+    <row r="794" spans="1:2">
       <c r="A794" s="11" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="795" spans="1:1" ht="34.5">
+    <row r="795" spans="1:2" ht="34.5">
       <c r="A795" s="11" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="797" spans="1:1">
+    <row r="797" spans="1:2">
       <c r="A797" s="11" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="798" spans="1:1" ht="34.5">
+    <row r="798" spans="1:2" ht="34.5">
       <c r="A798" s="11" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="799" spans="1:1">
+    <row r="799" spans="1:2">
       <c r="A799" s="11" t="s">
         <v>1129</v>
       </c>
@@ -29349,7 +29832,7 @@
         <v>1130</v>
       </c>
       <c r="B802" s="12" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D802" s="12"/>
     </row>
@@ -29367,7 +29850,7 @@
         <v>1132</v>
       </c>
       <c r="B804" s="12" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D804" s="12"/>
     </row>
@@ -29376,7 +29859,7 @@
         <v>1133</v>
       </c>
       <c r="B805" s="12" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D805" s="12"/>
     </row>
@@ -29388,7 +29871,7 @@
         <v>1134</v>
       </c>
       <c r="B807" s="12" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D807" s="12"/>
     </row>
@@ -29397,7 +29880,7 @@
         <v>1135</v>
       </c>
       <c r="B808" s="12" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D808" s="12"/>
     </row>
@@ -29418,7 +29901,7 @@
         <v>1137</v>
       </c>
       <c r="B811" s="12" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="D811" s="12"/>
     </row>
@@ -29430,7 +29913,7 @@
         <v>1138</v>
       </c>
       <c r="B813" s="12" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D813" s="12"/>
     </row>
@@ -29439,7 +29922,7 @@
         <v>1139</v>
       </c>
       <c r="B814" s="12" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D814" s="12"/>
     </row>
@@ -29451,7 +29934,7 @@
         <v>1140</v>
       </c>
       <c r="B816" s="12" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D816" s="12"/>
     </row>
@@ -29460,7 +29943,7 @@
         <v>1141</v>
       </c>
       <c r="B817" s="12" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D817" s="12"/>
     </row>
@@ -29469,7 +29952,7 @@
         <v>1142</v>
       </c>
       <c r="B819" s="12" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -29477,7 +29960,7 @@
         <v>1143</v>
       </c>
       <c r="B820" s="12" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -29485,7 +29968,7 @@
         <v>1144</v>
       </c>
       <c r="B821" s="12" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -29493,7 +29976,7 @@
         <v>1145</v>
       </c>
       <c r="B823" s="12" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="824" spans="1:4" ht="34.5">
@@ -29501,32 +29984,47 @@
         <v>1146</v>
       </c>
       <c r="B824" s="12" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="825" spans="1:4" ht="34.5">
       <c r="A825" s="11" t="s">
         <v>1147</v>
       </c>
+      <c r="B825" s="12" t="s">
+        <v>1656</v>
+      </c>
     </row>
     <row r="826" spans="1:4" ht="34.5">
       <c r="A826" s="11" t="s">
         <v>1148</v>
       </c>
+      <c r="B826" s="12" t="s">
+        <v>1658</v>
+      </c>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="11" t="s">
         <v>1149</v>
       </c>
+      <c r="B827" s="12" t="s">
+        <v>1653</v>
+      </c>
     </row>
     <row r="828" spans="1:4" ht="34.5">
       <c r="A828" s="11" t="s">
         <v>1150</v>
       </c>
+      <c r="B828" s="12" t="s">
+        <v>1659</v>
+      </c>
     </row>
     <row r="829" spans="1:4" ht="34.5">
       <c r="A829" s="11" t="s">
         <v>1151</v>
+      </c>
+      <c r="B829" s="12" t="s">
+        <v>1654</v>
       </c>
     </row>
   </sheetData>
